--- a/Poorly_Organized_Data_1.xlsx
+++ b/Poorly_Organized_Data_1.xlsx
@@ -7,6 +7,11 @@
   </bookViews>
   <sheets>
     <sheet name="Grades" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Algebra" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Trigonometry" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Geometry" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Calculus" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Statistics" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3253,4 +3258,94 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Poorly_Organized_Data_1.xlsx
+++ b/Poorly_Organized_Data_1.xlsx
@@ -7,11 +7,16 @@
   </bookViews>
   <sheets>
     <sheet name="Grades" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Algebra" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Trigonometry" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Geometry" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Calculus" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Statistics" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Algebra1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Trigonometry1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Geometry1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Calculus1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Statistics1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Algebra" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Trigonometry" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Geometry" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Calculus" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Statistics" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21,7 +26,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -33,6 +38,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -68,10 +79,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -445,7 +456,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,21 +480,21 @@
           <t>Student Info</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Grade</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
+    <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -492,15 +503,15 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
+    <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -509,15 +520,15 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1">
+    <row r="4" ht="19.5" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -526,15 +537,15 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1">
+    <row r="5" ht="19.5" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -543,15 +554,15 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1">
+    <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -560,15 +571,15 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="18.75" customHeight="1">
+    <row r="7" ht="19.5" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -577,15 +588,15 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="18.75" customHeight="1">
+    <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -594,15 +605,15 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1">
+    <row r="9" ht="19.5" customHeight="1">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -611,15 +622,15 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="18.75" customHeight="1">
+    <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -628,15 +639,15 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="18.75" customHeight="1">
+    <row r="11" ht="19.5" customHeight="1">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -645,15 +656,15 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="18.75" customHeight="1">
+    <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -662,15 +673,15 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="18.75" customHeight="1">
+    <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -679,15 +690,15 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1">
+    <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -696,15 +707,15 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="18.75" customHeight="1">
+    <row r="15" ht="19.5" customHeight="1">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -713,15 +724,15 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="18.75" customHeight="1">
+    <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -730,15 +741,15 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="18.75" customHeight="1">
+    <row r="17" ht="19.5" customHeight="1">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -750,12 +761,12 @@
     <row r="18" ht="18.75" customHeight="1">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -767,12 +778,12 @@
     <row r="19" ht="18.75" customHeight="1">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -784,12 +795,12 @@
     <row r="20" ht="18.75" customHeight="1">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -801,12 +812,12 @@
     <row r="21" ht="18.75" customHeight="1">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -818,12 +829,12 @@
     <row r="22" ht="18.75" customHeight="1">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -835,12 +846,12 @@
     <row r="23" ht="18.75" customHeight="1">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -852,12 +863,12 @@
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -869,12 +880,12 @@
     <row r="25" ht="18.75" customHeight="1">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -886,12 +897,12 @@
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -903,12 +914,12 @@
     <row r="27" ht="18.75" customHeight="1">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -920,12 +931,12 @@
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -937,12 +948,12 @@
     <row r="29" ht="18.75" customHeight="1">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -954,12 +965,12 @@
     <row r="30" ht="18.75" customHeight="1">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -971,12 +982,12 @@
     <row r="31" ht="18.75" customHeight="1">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -988,12 +999,12 @@
     <row r="32" ht="18.75" customHeight="1">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -1005,12 +1016,12 @@
     <row r="33" ht="18.75" customHeight="1">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -1022,12 +1033,12 @@
     <row r="34" ht="18.75" customHeight="1">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -1039,12 +1050,12 @@
     <row r="35" ht="18.75" customHeight="1">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -1056,12 +1067,12 @@
     <row r="36" ht="18.75" customHeight="1">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -1073,12 +1084,12 @@
     <row r="37" ht="18.75" customHeight="1">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -1090,12 +1101,12 @@
     <row r="38" ht="18.75" customHeight="1">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -1107,12 +1118,12 @@
     <row r="39" ht="18.75" customHeight="1">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -1124,12 +1135,12 @@
     <row r="40" ht="18.75" customHeight="1">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -1141,12 +1152,12 @@
     <row r="41" ht="18.75" customHeight="1">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Miller_Michael_A954650</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -3255,8 +3266,1254 @@
         <v>32</v>
       </c>
     </row>
+    <row r="182"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A111:C143"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>A419955</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>A547872</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>A200743</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>A314989</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>A402372</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>A913128</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>A105615</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>A371671</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>A323300</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>A267168</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>A992643</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>A349246</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>A846325</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>A460567</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>A122709</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>A308435</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>A125691</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>A634421</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>A604398</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>A480800</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>A497972</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>A852078</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>A426945</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>A296980</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>A300703</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>A716956</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>A684265</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>A509185</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>A899920</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>A812418</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>A384253</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>A865432</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>A800071</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A144:C181"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>A660145</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>A173278</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>A486548</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>A499761</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>A199405</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>A785670</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>A335383</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>A793880</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>A889747</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>A723501</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>A871317</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>A174596</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>A307595</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>A779442</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>A589928</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>A627045</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>A755395</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>A967916</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>A426255</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>A282768</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>A788958</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>A123679</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>A781203</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>A689526</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>A849390</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>A269091</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>A553176</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>A908120</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>A548819</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>A213644</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>A206913</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>A335585</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>A768962</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>A723308</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>A543651</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>A377141</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>A696942</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>A701491</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -3348,4 +4605,1914 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A42:C76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A719848</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A731798</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A863769</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A304200</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A233365</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A201981</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A520661</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A630060</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A400216</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A772179</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A773242</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A803666</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A416979</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A892596</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A751614</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A858580</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A676288</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A641012</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A791503</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A793139</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>A500852</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A600500</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>A924996</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A150818</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>A799480</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>A344337</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>A332047</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>A845081</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>A673135</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>A192932</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>A524322</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>A411805</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>A259164</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>A614195</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A77:C110"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>A503508</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>A892429</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>A650359</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>A977417</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>A726795</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>A236589</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>A687088</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>A117549</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>A563000</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>A920130</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>A134313</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>A158991</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>A915440</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>A371439</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>A971906</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>A537662</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>A229862</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>A539099</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>A670406</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>A630640</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>A376888</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>A102812</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>A610724</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>A296175</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>A256031</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>A347087</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>A285995</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>A980949</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>A260772</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>A337854</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>A943057</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>A831715</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>A863519</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>A440904</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>